--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 45557-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 45557-2020.xlsx", "A 45557-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 45557-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 45557-2020.png", "A 45557-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 45557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 45557-2020.docx", "A 45557-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 45557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 45557-2020.docx", "A 45557-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 45557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 45557-2020.docx", "A 45557-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 45557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 45557-2020.docx", "A 45557-2020")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,27 +709,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 24544-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 24544-2019.xlsx", "A 24544-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 24544-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 24544-2019.png", "A 24544-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 24544-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 24544-2019.docx", "A 24544-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 24544-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 24544-2019.docx", "A 24544-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 24544-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 24544-2019.docx", "A 24544-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 24544-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 24544-2019.docx", "A 24544-2019")</f>
         <v/>
       </c>
     </row>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 33057-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 33057-2020.xlsx", "A 33057-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 33057-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 33057-2020.png", "A 33057-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 33057-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 33057-2020.docx", "A 33057-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 33057-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 33057-2020.docx", "A 33057-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 33057-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 33057-2020.docx", "A 33057-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 33057-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 33057-2020.docx", "A 33057-2020")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,27 +884,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 46628-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 46628-2020.xlsx", "A 46628-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 46628-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 46628-2020.png", "A 46628-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 46628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 46628-2020.docx", "A 46628-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 46628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 46628-2020.docx", "A 46628-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 46628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 46628-2020.docx", "A 46628-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 46628-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 46628-2020.docx", "A 46628-2020")</f>
         <v/>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,27 +969,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 40547-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 40547-2021.xlsx", "A 40547-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 40547-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 40547-2021.png", "A 40547-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 40547-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 40547-2021.docx", "A 40547-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 40547-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 40547-2021.docx", "A 40547-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 40547-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 40547-2021.docx", "A 40547-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 40547-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 40547-2021.docx", "A 40547-2021")</f>
         <v/>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,27 +1054,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 50293-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/artfynd/A 50293-2022.xlsx", "A 50293-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 50293-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/kartor/A 50293-2022.png", "A 50293-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 50293-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomål/A 50293-2022.docx", "A 50293-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 50293-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/klagomålsmail/A 50293-2022.docx", "A 50293-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 50293-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsyn/A 50293-2022.docx", "A 50293-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 50293-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIDAHOLM/tillsynsmail/A 50293-2022.docx", "A 50293-2022")</f>
         <v/>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y295"/>
+  <dimension ref="A1:Y296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43600</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>44020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44089</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43423</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43424</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43430</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43494</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43525</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43543</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43554</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43594</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43601</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43619</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43620</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43654</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43658</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43682</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43709</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43714</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43731</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43739</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43762</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43767</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43768</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43837</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43839</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43854</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43868</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43878</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43888</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43921</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43958</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43961</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43975</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44006</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44007</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44015</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44057</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44075</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44089</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44090</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44092</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44109</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44112</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44117</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44129</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44220</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44230</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44249</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44273</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44274</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44274</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44286</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44300</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44302</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44382</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44382</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44382</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44382</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44382</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44387</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44392</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44392</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44420</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44438</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44447</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44454</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44456</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44456</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44456</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44462</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44480</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44508</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44508</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44512</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44512</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44512</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44512</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44529</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44552</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44573</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44573</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44578</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44580</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44587</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44610</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44613</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44615</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44615</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44615</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44636</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44658</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44692</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44694</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44707</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44783</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44806</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44812</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44837</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44860</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44866</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44907</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44907</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44930</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44936</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44937</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44942</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44945</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44958</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44973</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44973</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44973</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44973</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44983</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44983</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44985</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44991</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44997</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45007</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45041</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45043</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45043</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45047</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45048</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45051</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45068</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45096</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45099</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45103</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45103</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45103</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45105</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45105</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45107</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45121</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45146</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45155</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45156</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
       </c>
       <c r="R294" s="2" t="inlineStr"/>
     </row>
-    <row r="295">
+    <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
           <t>A 39188-2023</t>
@@ -17697,7 +17697,7 @@
         <v>45166</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17743,6 +17743,63 @@
         <v>0</v>
       </c>
       <c r="R295" s="2" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>A 48035-2023</t>
+        </is>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>TIDAHOLM</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
